--- a/data_collection_with_python/data/color dilution compilation.xlsx
+++ b/data_collection_with_python/data/color dilution compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance Eades\Documents\GitHub\UCI-ChemECar-2021\data_collection_with_python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA40365E-9747-4D38-8139-B86711B7CB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F1370-5B04-47A3-A7DD-B0D803CD03AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="all data" sheetId="1" r:id="rId1"/>
     <sheet name="just rgb" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>time(s)</t>
   </si>
@@ -66,6 +77,15 @@
   </si>
   <si>
     <t>Red Dilution</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Variation in Values Start</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
 </sst>
 </file>
@@ -549,7 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -856,6 +879,4995 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blue Dilution 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'just rgb'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'just rgb'!$B$2:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>0.27060961700000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42171406700000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58684277500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73704481099999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89847445500000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.07017374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2220511439999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3859100339999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5520224570000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7053940299999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.870762587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0205829139999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.188610315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3360245229999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.503814459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6704635620000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8218703270000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9769554139999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.149666071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2968764309999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4577832220000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6147537230000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7750284669999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9400222299999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1080126760000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2611992360000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4202060699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.583267212</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7349345679999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.904599428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0556805130000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2235255240000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3862650390000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5387241840000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7056982520000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8536610600000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0099415780000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1736237999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3327088360000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.4933581350000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6528460980000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.81698966</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9830954070000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.1311864849999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.2922396660000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4605934620000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6226637359999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7706456179999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9421706199999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1022317410000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.2610921860000008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4208416939999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.5695185659999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.7372243399999991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9039616580000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0528120990000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.2186980250000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.3723928930000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.5429263110000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.7033097739999992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.8528873919999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.022849559999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.170322179999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.34169793</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.501687049999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.653908250000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.80580211</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.974107500000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.13372135</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.28672147</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.45754528</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.6124866</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.7729497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.939585689999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.092032189999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.250823260000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.41149521</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.56979346</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.738607650000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.89387035</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.05295873</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.20579553</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.36970043</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.525099519999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.68517065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.849042649999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.00473261</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.16881227</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.32256246</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.494943859999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.654850959999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.801300530000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.971282009999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.129156350000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.293941500000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.44935989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.607506280000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.77167034</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.925533529999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.08471179</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.245471949999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16.4049747</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.56978917</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.731867309999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.881157399999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.055044890000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.202305320000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.363383049999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17.52803278</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17.678987500000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17.853619340000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.007420539999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.17065406</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.333483699999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.487993719999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.640402559999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18.80799103</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18.96883798</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>19.119221450000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19.284930230000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19.436930889999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19.598792549999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19.76385045</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19.92013335</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20.079906229999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20.23467827</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20.40252233</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20.56942081</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20.7184515</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>20.88611341</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21.037142750000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21.20739961</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21.368150230000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21.520981070000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21.68262434</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21.836351870000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22.004137750000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22.151843549999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22.32066584</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22.486379150000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22.646026370000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22.803975820000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22.9545362</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23.11835361</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.28462863</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>23.437195299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'just rgb'!$C$2:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>91.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91.78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92.18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92.24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92.57</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92.62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>94.55</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94.59</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95.26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>95.39</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>95.78</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95.78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95.91</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>96.62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>96.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>97.02</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>97.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>97.42</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>97.56</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>97.56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>97.69</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98.24</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>98.24</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>98.38</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>98.38</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>98.38</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>98.52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>98.52</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>98.52</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98.43</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.43</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98.43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98.57</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>98.85</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>98.85</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>98.85</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>98.85</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>98.99</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>99.13</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>99.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57F2-4085-84E9-E3E12454F917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'just rgb'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'just rgb'!$B$2:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>0.27060961700000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42171406700000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58684277500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73704481099999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89847445500000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.07017374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2220511439999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3859100339999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5520224570000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7053940299999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.870762587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0205829139999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.188610315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3360245229999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.503814459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6704635620000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8218703270000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9769554139999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.149666071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2968764309999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4577832220000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6147537230000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7750284669999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9400222299999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1080126760000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2611992360000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4202060699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.583267212</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7349345679999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.904599428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0556805130000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2235255240000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3862650390000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5387241840000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7056982520000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8536610600000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0099415780000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1736237999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3327088360000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.4933581350000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6528460980000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.81698966</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9830954070000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.1311864849999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.2922396660000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4605934620000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6226637359999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7706456179999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9421706199999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1022317410000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.2610921860000008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4208416939999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.5695185659999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.7372243399999991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9039616580000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0528120990000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.2186980250000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.3723928930000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.5429263110000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.7033097739999992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.8528873919999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.022849559999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.170322179999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.34169793</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.501687049999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.653908250000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.80580211</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.974107500000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.13372135</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.28672147</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.45754528</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.6124866</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.7729497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.939585689999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.092032189999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.250823260000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.41149521</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.56979346</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.738607650000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.89387035</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.05295873</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.20579553</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.36970043</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.525099519999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.68517065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.849042649999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.00473261</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.16881227</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.32256246</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.494943859999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.654850959999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.801300530000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.971282009999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.129156350000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.293941500000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.44935989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.607506280000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.77167034</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.925533529999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.08471179</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.245471949999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16.4049747</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.56978917</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.731867309999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.881157399999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.055044890000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.202305320000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.363383049999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17.52803278</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17.678987500000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17.853619340000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.007420539999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.17065406</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.333483699999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.487993719999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.640402559999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18.80799103</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18.96883798</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>19.119221450000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19.284930230000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19.436930889999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19.598792549999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19.76385045</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19.92013335</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20.079906229999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20.23467827</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20.40252233</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20.56942081</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20.7184515</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>20.88611341</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21.037142750000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21.20739961</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21.368150230000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21.520981070000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21.68262434</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21.836351870000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22.004137750000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22.151843549999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22.32066584</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22.486379150000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22.646026370000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22.803975820000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22.9545362</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23.11835361</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.28462863</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>23.437195299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'just rgb'!$D$2:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>80.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80.47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80.42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79.47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79.63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>79.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>78.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>78.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>78.53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>78.37</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>78.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.37</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78.47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>78.23</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>78.23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78.31</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78.28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>78.28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>78.39</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>78.14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>78.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>78.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>78.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>78.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78.33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.44</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>78.19</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78.08</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78.19</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78.05</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78.05</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.05</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78.05</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78.16</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>78.16</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>78.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>78.27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78.27</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>78.38</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78.38</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>78.02</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78.02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>78.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>78.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>78.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>78.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>78.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>78.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>78.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>78.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>78.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>78.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>78.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.180000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57F2-4085-84E9-E3E12454F917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'just rgb'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'just rgb'!$B$2:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>0.27060961700000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42171406700000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58684277500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73704481099999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89847445500000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.07017374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2220511439999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3859100339999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5520224570000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7053940299999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.870762587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0205829139999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.188610315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3360245229999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.503814459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6704635620000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8218703270000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9769554139999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.149666071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2968764309999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4577832220000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6147537230000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7750284669999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9400222299999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1080126760000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2611992360000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4202060699999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.583267212</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7349345679999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.904599428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0556805130000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2235255240000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3862650390000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5387241840000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7056982520000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8536610600000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0099415780000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1736237999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3327088360000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.4933581350000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6528460980000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.81698966</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9830954070000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.1311864849999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.2922396660000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4605934620000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6226637359999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.7706456179999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9421706199999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1022317410000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.2610921860000008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4208416939999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.5695185659999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.7372243399999991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9039616580000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0528120990000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.2186980250000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.3723928930000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.5429263110000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.7033097739999992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.8528873919999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.022849559999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.170322179999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.34169793</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.501687049999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.653908250000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.80580211</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.974107500000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.13372135</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.28672147</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.45754528</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.6124866</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.7729497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.939585689999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.092032189999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.250823260000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.41149521</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.56979346</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.738607650000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.89387035</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.05295873</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.20579553</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.36970043</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.525099519999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.68517065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.849042649999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.00473261</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.16881227</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.32256246</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.494943859999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.654850959999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.801300530000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.971282009999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.129156350000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.293941500000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.44935989</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.607506280000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.77167034</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.925533529999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.08471179</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.245471949999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16.4049747</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.56978917</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.731867309999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.881157399999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.055044890000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.202305320000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.363383049999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17.52803278</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17.678987500000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17.853619340000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.007420539999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.17065406</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.333483699999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.487993719999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.640402559999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18.80799103</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18.96883798</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>19.119221450000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19.284930230000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19.436930889999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>19.598792549999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19.76385045</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19.92013335</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20.079906229999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20.23467827</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20.40252233</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20.56942081</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20.7184515</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>20.88611341</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21.037142750000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21.20739961</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21.368150230000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21.520981070000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21.68262434</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21.836351870000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22.004137750000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22.151843549999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22.32066584</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22.486379150000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22.646026370000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22.803975820000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22.9545362</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23.11835361</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>23.28462863</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>23.437195299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'just rgb'!$E$2:$E$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95.66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.77</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.61</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95.92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97.07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>96.92</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>97.14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96.43</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>96.86</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96.39</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>96.39</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95.87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95.91</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95.56</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95.47</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>95.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>95.38</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>95.07</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>95.07</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>94.84</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>94.84</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>94.88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>94.66</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>94.66</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94.66</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>94.79</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>94.43</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94.43</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94.33</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>94.47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>94.11</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94.24</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>94.01</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>93.78</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>93.78</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>93.78</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>93.78</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>93.92</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>93.92</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>93.92</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>93.92</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>93.82</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>93.32</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>93.45</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>93.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57F2-4085-84E9-E3E12454F917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323061744"/>
+        <c:axId val="323062576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="323061744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323062576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="323062576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323061744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blue Dilution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'just rgb'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'just rgb'!$G$2:$G$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>0.15719366100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.308125019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47830510100000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63666677500000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78755640999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.962645054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1187193390000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2739098069999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.434639931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6009917259999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7614614959999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.909845829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0779547690000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.230268717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3933293820000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5596251489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7122676370000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8765528200000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0387573240000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1915783879999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3582005499999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5107772349999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.678367615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.826858997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9947538379999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1416170599999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3122384550000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4763410090000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6289744380000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7929141519999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9448881150000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1088922019999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2766544819999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4281799790000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5931036470000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7585830690000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9114263060000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0779509540000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2268271449999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3948385720000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5575270650000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7101826669999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8770194050000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0247583389999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.1960644719999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3451561930000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5091001989999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6755142210000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8349266049999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.9950017930000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1474738119999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3113503459999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.4743227959999992</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.6269969940000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.7937607769999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.950641632</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1101999280000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.2581393720000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.425430059</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5925772190000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7414536480000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9097681049999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.06068277</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.224773409999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.39096546</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.543993710000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.70934701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.87022638</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.02990675</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.638438219999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.82622409</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.983424899999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.134137630000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.294469360000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.456263539999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.609920259999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.784293890000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.943150760000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'just rgb'!$H$2:$H$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.92</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.09</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97.23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97.37</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>97.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97.79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98.55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98.69</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98.55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>98.98</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>98.69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>98.98</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>99.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99.56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>98.89</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>99.27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98.89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>98.89</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>98.89</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>98.89</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>99.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C804-4B55-B6B7-21B6FF208F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'just rgb'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'just rgb'!$G$2:$G$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>0.15719366100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.308125019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47830510100000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63666677500000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78755640999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.962645054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1187193390000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2739098069999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.434639931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6009917259999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7614614959999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.909845829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0779547690000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.230268717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3933293820000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5596251489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7122676370000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8765528200000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0387573240000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1915783879999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3582005499999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5107772349999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.678367615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.826858997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9947538379999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1416170599999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3122384550000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4763410090000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6289744380000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7929141519999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9448881150000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1088922019999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2766544819999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4281799790000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5931036470000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7585830690000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9114263060000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0779509540000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2268271449999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3948385720000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5575270650000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7101826669999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8770194050000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0247583389999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.1960644719999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3451561930000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5091001989999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6755142210000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8349266049999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.9950017930000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1474738119999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3113503459999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.4743227959999992</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.6269969940000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.7937607769999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.950641632</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1101999280000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.2581393720000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.425430059</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5925772190000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7414536480000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9097681049999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.06068277</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.224773409999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.39096546</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.543993710000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.70934701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.87022638</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.02990675</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.638438219999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.82622409</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.983424899999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.134137630000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.294469360000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.456263539999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.609920259999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.784293890000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.943150760000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'just rgb'!$I$2:$I$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.09</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.83</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72.52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72.62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>72.61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72.19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72.19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72.13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>72.02</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C804-4B55-B6B7-21B6FF208F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'just rgb'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'just rgb'!$G$2:$G$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>0.15719366100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.308125019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47830510100000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63666677500000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78755640999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.962645054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1187193390000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2739098069999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.434639931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6009917259999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7614614959999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.909845829</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0779547690000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.230268717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3933293820000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5596251489999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7122676370000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8765528200000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0387573240000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1915783879999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3582005499999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5107772349999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.678367615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.826858997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9947538379999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1416170599999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3122384550000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4763410090000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6289744380000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7929141519999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9448881150000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1088922019999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2766544819999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4281799790000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5931036470000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7585830690000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9114263060000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0779509540000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.2268271449999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3948385720000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5575270650000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7101826669999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8770194050000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0247583389999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.1960644719999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.3451561930000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5091001989999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6755142210000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8349266049999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.9950017930000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1474738119999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3113503459999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.4743227959999992</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.6269969940000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.7937607769999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.950641632</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1101999280000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.2581393720000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.425430059</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5925772190000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7414536480000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9097681049999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.06068277</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.224773409999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.39096546</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.543993710000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.70934701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.87022638</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.02990675</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.638438219999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.82622409</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.983424899999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.134137630000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.294469360000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.456263539999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.609920259999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.784293890000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.943150760000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'just rgb'!$J$2:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89.12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>89.51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89.28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>88.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89.09</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>88.39</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88.16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88.05</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>87.81</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>87.56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87.32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.08</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.32</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C804-4B55-B6B7-21B6FF208F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328659248"/>
+        <c:axId val="328662160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328659248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328662160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328662160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328659248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -896,7 +5908,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1453,6 +7577,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104105</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>215815</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF3D433-68E5-41A4-AE44-C5322557A99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>362218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>107323</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>26831</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7F10DA-681F-469A-80CC-D8DD67F26CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1759,100 +7960,100 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2" t="s">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2" t="s">
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2" t="s">
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -23415,11 +29616,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A4D4DE-615C-42B0-917B-E798B2D318C2}">
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="30" max="30" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -23497,8 +29701,13 @@
       <c r="Y1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="AB1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>0.27060961700000002</v>
@@ -23560,11 +29769,23 @@
         <v>90.31</v>
       </c>
       <c r="Y2" s="4"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AA2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>0.42171406700000003</v>
@@ -23630,8 +29851,23 @@
       <c r="Y3" s="4">
         <v>90.53</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>AVERAGE(C132:C137)-AVERAGE(C2:C15)</f>
+        <v>7.4204761904761796</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>AVERAGE(D132:D137)-AVERAGE(D2:D15)</f>
+        <v>-2.6645238095238142</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>AVERAGE(E132:E137)-AVERAGE(E2:E15)</f>
+        <v>-1.1392857142857196</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>0.58684277500000004</v>
@@ -23698,11 +29934,21 @@
         <v>90.19</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AA4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>AVERAGE(H70:H79)-AVERAGE(H3:H16)</f>
+        <v>5.5244285714285724</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>AVERAGE(I70:I79)-AVERAGE(I3:I16)</f>
+        <v>-4.1615714285714489</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>AVERAGE(J70:J79)-AVERAGE(J3:J16)</f>
+        <v>-0.83228571428570319</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -33516,6 +39762,11 @@
       <c r="U165" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AB1:AD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>